--- a/leanCrm/data/physicalAreas/PhysicalSpacesTypes/data/PhysicalSpacesTypes.xlsx
+++ b/leanCrm/data/physicalAreas/PhysicalSpacesTypes/data/PhysicalSpacesTypes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -115,12 +115,18 @@
   </si>
   <si>
     <t>PAS</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>PhysicalAreasTypes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -620,7 +626,7 @@
     <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Buena" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
@@ -921,7 +927,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -930,131 +936,142 @@
     <col min="1" max="1" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>

--- a/leanCrm/data/physicalAreas/PhysicalSpacesTypes/data/PhysicalSpacesTypes.xlsx
+++ b/leanCrm/data/physicalAreas/PhysicalSpacesTypes/data/PhysicalSpacesTypes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>name</t>
   </si>
@@ -72,55 +72,10 @@
     <t>code</t>
   </si>
   <si>
-    <t>PLA</t>
-  </si>
-  <si>
-    <t>FAC</t>
-  </si>
-  <si>
-    <t>LOC</t>
-  </si>
-  <si>
-    <t>BAÑ</t>
-  </si>
-  <si>
-    <t>COC</t>
-  </si>
-  <si>
-    <t>RIN</t>
-  </si>
-  <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>SAL</t>
-  </si>
-  <si>
-    <t>COM</t>
-  </si>
-  <si>
-    <t>SCO</t>
-  </si>
-  <si>
-    <t>ALC</t>
-  </si>
-  <si>
-    <t>PAT</t>
-  </si>
-  <si>
-    <t>BAL</t>
-  </si>
-  <si>
-    <t>ESC</t>
-  </si>
-  <si>
-    <t>PAS</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
-    <t>PhysicalAreasTypes</t>
+    <t>PhysicalSpacesTypes</t>
   </si>
 </sst>
 </file>
@@ -938,13 +893,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -959,123 +914,124 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>18</v>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
+      <c r="B4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
+      <c r="B5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
+      <c r="B6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
+      <c r="B7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
+      <c r="B8">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
-        <v>24</v>
+      <c r="B9">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
+      <c r="B10">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
+      <c r="B11">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>27</v>
+      <c r="B12">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
+      <c r="B13">
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
+      <c r="B14">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>30</v>
+      <c r="B15">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
+      <c r="B16">
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
+      <c r="B17">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>